--- a/data/trans_dic/P1409-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P1409-Dificultad-trans_dic.xlsx
@@ -664,7 +664,7 @@
         <v>0.03748706575147846</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.07251281363095846</v>
+        <v>0.07251281363095848</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01825485087480349</v>
+        <v>0.01836424796694378</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01810248815202992</v>
+        <v>0.01835804214533256</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03772781280623001</v>
+        <v>0.03888233453035705</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02093666376154</v>
+        <v>0.02185391320265938</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03617632480904175</v>
+        <v>0.0371294179318979</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.06752216491358461</v>
+        <v>0.06697408724652988</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02348241060622136</v>
+        <v>0.02204589862507345</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02972850002638087</v>
+        <v>0.03030574681117093</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.06026953848567741</v>
+        <v>0.05990078948292389</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03970702683372541</v>
+        <v>0.03844431609121431</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03800850097819872</v>
+        <v>0.03697920391312269</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08072531174834617</v>
+        <v>0.08292356716175116</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04420717687889679</v>
+        <v>0.04519097793698538</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06168699038535715</v>
+        <v>0.06276049629351071</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1026745548330095</v>
+        <v>0.1060764008869474</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.03819149667950751</v>
+        <v>0.03819927303151927</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.0461936389767428</v>
+        <v>0.0458977586338241</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.08725731375733257</v>
+        <v>0.08795079440985114</v>
       </c>
     </row>
     <row r="7">
@@ -764,7 +764,7 @@
         <v>0.04312811974718132</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.039077924679981</v>
+        <v>0.03907792467998099</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.02186249506292782</v>
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01272554352569813</v>
+        <v>0.01265881979081213</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01239873982597547</v>
+        <v>0.01230348930045545</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02701397525228616</v>
+        <v>0.02637155927975872</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01484379295048261</v>
+        <v>0.01547752345248415</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03115020276187037</v>
+        <v>0.03164269224983608</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02990083940465605</v>
+        <v>0.02975780663845277</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01635911740961471</v>
+        <v>0.01506207101762957</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0243712465773078</v>
+        <v>0.0251300796525858</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0316289463139476</v>
+        <v>0.03082513895276459</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03238834448860846</v>
+        <v>0.03191615617012642</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03134398822600798</v>
+        <v>0.03056340682697498</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05360816962807387</v>
+        <v>0.05350716035817953</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03389350785119447</v>
+        <v>0.03411845619502771</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05884547300300402</v>
+        <v>0.05676285122208099</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05149793538858224</v>
+        <v>0.05041440083952135</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03006748410761129</v>
+        <v>0.02896757116405403</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.04062403689016202</v>
+        <v>0.04081736240819903</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04829541209450069</v>
+        <v>0.04743185256320089</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.006231610096413829</v>
+        <v>0.00676311618205451</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01436791180607099</v>
+        <v>0.01401293184927812</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02320119053364787</v>
+        <v>0.02299620644367206</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01695702442196241</v>
+        <v>0.01762270990054172</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01976671828410624</v>
+        <v>0.01895516875006748</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03601370487690146</v>
+        <v>0.03625718032973907</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01366919847513801</v>
+        <v>0.0135155498891076</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01902162518789426</v>
+        <v>0.01941574596051376</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03246326316494239</v>
+        <v>0.03311944230856638</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02238834383971791</v>
+        <v>0.02127073731992757</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0362959869483504</v>
+        <v>0.03932052612972846</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04938067609012251</v>
+        <v>0.04919130149716409</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04261988877957217</v>
+        <v>0.04168752582717086</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04312446853221068</v>
+        <v>0.04254633874904255</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05788275133424729</v>
+        <v>0.05765972463961845</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02838289668779128</v>
+        <v>0.02782309185578166</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03596134990702567</v>
+        <v>0.03587051922072599</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04923574751996396</v>
+        <v>0.04950888870947524</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.004038831060651279</v>
+        <v>0.003901810587643152</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02116311361071802</v>
+        <v>0.02095526983438022</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02149956888717934</v>
+        <v>0.02293692118741072</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01492992974537326</v>
+        <v>0.01456117784786118</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01503071523899679</v>
+        <v>0.01477674288585244</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0278599938268993</v>
+        <v>0.02769271413984928</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01134300075724172</v>
+        <v>0.01151383564951578</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02086366958449152</v>
+        <v>0.02158527712391092</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02681778496140216</v>
+        <v>0.02793711882996293</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02570208940580113</v>
+        <v>0.02320634905181643</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05531946751118915</v>
+        <v>0.05618192207589381</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.056728488152251</v>
+        <v>0.05889071637383363</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04415723215350024</v>
+        <v>0.04539068701104343</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04447145150544748</v>
+        <v>0.04495745896926148</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.04738354827008445</v>
+        <v>0.04733428450189428</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.0276971127101296</v>
+        <v>0.02924501529715283</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.0440902132840244</v>
+        <v>0.04310670455836884</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04796324267943202</v>
+        <v>0.04921804833946795</v>
       </c>
     </row>
     <row r="16">
@@ -1100,7 +1100,7 @@
         <v>0.03251614663942819</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.04373878424214521</v>
+        <v>0.0437387842421452</v>
       </c>
     </row>
     <row r="17">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01484188072071137</v>
+        <v>0.01439346677557351</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02015552672028559</v>
+        <v>0.02046402397470483</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03179974540823235</v>
+        <v>0.0321654118768611</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02167164833154758</v>
+        <v>0.02123688243771033</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03307230987744835</v>
+        <v>0.03302556033306165</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.04275532343024527</v>
+        <v>0.04243182470038875</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01997266345962492</v>
+        <v>0.01945466119992537</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02836648997699078</v>
+        <v>0.02810937226026683</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03921981533510169</v>
+        <v>0.03868624706052023</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02420337394028268</v>
+        <v>0.02386404334005517</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03108532400492589</v>
+        <v>0.03139437374356172</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04818104938892567</v>
+        <v>0.04783116695909002</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03373065707522612</v>
+        <v>0.03321444085326936</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.04711731134489216</v>
+        <v>0.04718851794485705</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.05490047255936082</v>
+        <v>0.05438727772503524</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02717975899713575</v>
+        <v>0.02693903808541753</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03707911122987238</v>
+        <v>0.0369107096828233</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04888423850114382</v>
+        <v>0.04896441293789251</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>19057</v>
+        <v>19171</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>20420</v>
+        <v>20708</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>18731</v>
+        <v>19304</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>23396</v>
+        <v>24421</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>45566</v>
+        <v>46767</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>42105</v>
+        <v>41764</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>50755</v>
+        <v>47650</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>70979</v>
+        <v>72357</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>67505</v>
+        <v>67092</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>41452</v>
+        <v>40133</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>42873</v>
+        <v>41712</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>40078</v>
+        <v>41169</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>49400</v>
+        <v>50500</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>77699</v>
+        <v>79051</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>64026</v>
+        <v>66147</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>82547</v>
+        <v>82564</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>110290</v>
+        <v>109584</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>97733</v>
+        <v>98510</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>12434</v>
+        <v>12369</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>11268</v>
+        <v>11182</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>25910</v>
+        <v>25294</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>16214</v>
+        <v>16907</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>31352</v>
+        <v>31848</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>33328</v>
+        <v>33169</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>33854</v>
+        <v>31169</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>46678</v>
+        <v>48132</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>65591</v>
+        <v>63925</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>31646</v>
+        <v>31184</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>28486</v>
+        <v>27777</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>51418</v>
+        <v>51321</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>37023</v>
+        <v>37269</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>59226</v>
+        <v>57130</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>57401</v>
+        <v>56194</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>62222</v>
+        <v>59945</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>77807</v>
+        <v>78177</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>100154</v>
+        <v>98363</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>5516</v>
+        <v>5986</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>11836</v>
+        <v>11543</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>24280</v>
+        <v>24065</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>14851</v>
+        <v>15434</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>15241</v>
+        <v>14616</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>37659</v>
+        <v>37914</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>24070</v>
+        <v>23800</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>30336</v>
+        <v>30965</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>67919</v>
+        <v>69291</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>19816</v>
+        <v>18827</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>29899</v>
+        <v>32391</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>51676</v>
+        <v>51478</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>37326</v>
+        <v>36510</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>33252</v>
+        <v>32806</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>60527</v>
+        <v>60294</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>49980</v>
+        <v>48994</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>57352</v>
+        <v>57207</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>103009</v>
+        <v>103581</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2032</v>
+        <v>1963</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>10723</v>
+        <v>10618</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>20982</v>
+        <v>22385</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>6759</v>
+        <v>6592</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>7361</v>
+        <v>7236</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>25280</v>
+        <v>25128</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>10841</v>
+        <v>11004</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>20789</v>
+        <v>21508</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>50507</v>
+        <v>52615</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>12929</v>
+        <v>11673</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>28030</v>
+        <v>28467</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>55363</v>
+        <v>57473</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>19992</v>
+        <v>20550</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>21778</v>
+        <v>22016</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>42996</v>
+        <v>42951</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>26472</v>
+        <v>27951</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>43931</v>
+        <v>42951</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>90330</v>
+        <v>92694</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>50598</v>
+        <v>49069</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>67869</v>
+        <v>68908</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>110600</v>
+        <v>111872</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>76681</v>
+        <v>75143</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>116639</v>
+        <v>116474</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>157823</v>
+        <v>156628</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>138760</v>
+        <v>135161</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>195561</v>
+        <v>193788</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>281180</v>
+        <v>277354</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>82513</v>
+        <v>81356</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>104673</v>
+        <v>105714</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>167575</v>
+        <v>166358</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>119350</v>
+        <v>117524</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>166173</v>
+        <v>166424</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>202654</v>
+        <v>200760</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>188831</v>
+        <v>187158</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>255626</v>
+        <v>254465</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>350467</v>
+        <v>351042</v>
       </c>
     </row>
     <row r="24">
